--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-654102.7954628018</v>
+        <v>-610593.5041790593</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17416836.60718618</v>
+        <v>16765245.16155729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484448</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9444295.260101642</v>
+        <v>9466491.495193498</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>224.5163840664314</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>33.84528284436655</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>142.0902352657462</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>54.36806965338594</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>350.4574532874179</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>70.75434793228357</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -959,10 +959,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>148.6041873872577</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.58216279976261</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>146.1224224236111</v>
       </c>
       <c r="W8" t="n">
-        <v>137.0311226831137</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,16 +1339,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>37.11036996895994</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>199.4521447952254</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,25 +1370,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>24.49669607970502</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>284.9778231259016</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561526</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1774,13 +1774,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>54.4936082835894</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800253</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2011,7 +2011,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>105.2234111170474</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225813</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>54.18430635300749</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2257,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>82.43648595643992</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345373</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>28.85560178398609</v>
       </c>
       <c r="H28" t="n">
-        <v>24.34318456170481</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225813</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225773</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934472</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225763</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3566,7 +3566,7 @@
         <v>384.5711897043296</v>
       </c>
       <c r="X38" t="n">
-        <v>398.7153284477354</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
         <v>387.9675521245957</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277827</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934448</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245954</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3901,7 @@
         <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
         <v>151.8247133730227</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934448</v>
+        <v>4.967932742934439</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934448</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557.5168885550254</v>
+        <v>802.7623862436307</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4148197788528</v>
+        <v>768.6603174674581</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>332.7505326419026</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>303.0161918406018</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>279.1891662902136</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048489</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048489</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048489</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>487.6596274134028</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>487.6596274134028</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>487.6596274134028</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>487.6596274134028</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>607.5718832905923</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.083015301593</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312593</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271188</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024244</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2536.595124208081</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2316.52789708112</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2057.305594398137</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>2057.305594398137</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.105672808467</v>
+        <v>2056.490543849574</v>
       </c>
       <c r="X2" t="n">
-        <v>613.9632093877782</v>
+        <v>1637.348080428885</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.7760549995292</v>
+        <v>1229.061956728538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1463.178981536729</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1356.722520373371</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1261.632231519924</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>1167.511816846878</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1084.127978463039</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>998.7428887292233</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>957.0072365454357</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>983.0709097058933</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1307.629234672106</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1956.140366683106</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1962.335281297829</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1962.335281297829</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1962.335281297829</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1962.335281297829</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1962.335281297829</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2503.074219929905</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024244</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2556.791560472628</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2426.612916803229</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2250.276369803198</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2051.158851865197</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1865.836097598391</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1710.968661837271</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1584.482882616492</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>1131.463100572366</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>958.9013890555913</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>793.023396257114</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>623.2653925078512</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>446.5583384696073</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>280.967063495435</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>141.0648891858096</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048489</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>138.9846251251747</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>413.7430796963104</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>831.9529614642714</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>1291.436828645185</v>
       </c>
       <c r="N4" t="n">
-        <v>1233.544589050298</v>
+        <v>1733.695631802829</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2153.36488102861</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2500.871774998952</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024244</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2620.246998024244</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2461.005629322241</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>2461.005629322241</v>
       </c>
       <c r="U4" t="n">
-        <v>1532.240118618369</v>
+        <v>2182.572628575346</v>
       </c>
       <c r="V4" t="n">
-        <v>1532.240118618369</v>
+        <v>1895.617120445777</v>
       </c>
       <c r="W4" t="n">
-        <v>1532.240118618369</v>
+        <v>1623.590716032068</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>1378.198961365481</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>1323.281719291354</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.0636759001416</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C5" t="n">
-        <v>449.9616071239689</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D5" t="n">
-        <v>418.0922263388175</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>388.3578855375167</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2598.59178811599</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2235.974838049816</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1831.11938346085</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.3228423446453</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.603617826933</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C7" t="n">
-        <v>122.603617826933</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.603617826933</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>969.9527597608121</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C8" t="n">
-        <v>531.8102869442354</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>499.9409061590839</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>470.2065653577831</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>42.33913576699088</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>42.33913576699088</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>42.33913576699088</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>42.33913576699088</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>477.5938232199088</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>477.5938232199088</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>477.5938232199088</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>477.5938232199088</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>477.5938232199088</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>899.9091133634628</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1423.855918479975</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1947.802723596487</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2116.956788349544</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2033.304914533381</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1813.237687406419</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1554.015384723436</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1554.015384723436</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>1415.600109285948</v>
+        <v>2117.606965353965</v>
       </c>
       <c r="X8" t="n">
-        <v>1400.498049905662</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y8" t="n">
-        <v>1396.25233024572</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.5108807582836</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>442.0544195949259</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>346.9641307414792</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>252.8437160684329</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>169.4598776845945</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>84.07478795077841</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>42.33913576699088</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>68.40280892744848</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>392.9611338936608</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>916.9079390101729</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.459314034948</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.459314034948</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.459314034948</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.459314034948</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.459314034948</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1588.40611915146</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1705.5788972458</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1642.123459694183</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1511.944816024784</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1335.608269024753</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1136.490751086752</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>951.167996819946</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>796.300561058826</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>669.8147818380468</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1121.397296378872</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C10" t="n">
-        <v>948.8355848620971</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D10" t="n">
-        <v>782.9575920636198</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E10" t="n">
-        <v>613.1995883143571</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F10" t="n">
-        <v>436.4925342761134</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>270.901259301941</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>130.9990849923155</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>42.33913576699088</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>42.33913576699088</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>42.33913576699088</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>448.0379748148629</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>907.521841995776</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1349.78064515342</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1769.449894379202</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2116.956788349544</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2116.956788349544</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2095.538967054916</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2095.538967054916</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2058.053744864047</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2058.053744864047</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2058.053744864047</v>
+        <v>1763.622376341887</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.027340450339</v>
+        <v>1491.595971928179</v>
       </c>
       <c r="X10" t="n">
-        <v>1540.635585783751</v>
+        <v>1246.204217261591</v>
       </c>
       <c r="Y10" t="n">
-        <v>1313.215915097859</v>
+        <v>1018.784546575699</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1622.708357407527</v>
+        <v>1381.18778611586</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.708357407527</v>
+        <v>943.0453132992834</v>
       </c>
       <c r="D11" t="n">
-        <v>1622.708357407527</v>
+        <v>507.1355284737278</v>
       </c>
       <c r="E11" t="n">
-        <v>1188.933612565822</v>
+        <v>73.36078363202296</v>
       </c>
       <c r="F11" t="n">
-        <v>761.0661829750302</v>
+        <v>73.36078363202296</v>
       </c>
       <c r="G11" t="n">
-        <v>359.6683515982941</v>
+        <v>73.36078363202296</v>
       </c>
       <c r="H11" t="n">
-        <v>70.53819704151009</v>
+        <v>73.36078363202306</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151009</v>
+        <v>72.94399425916306</v>
       </c>
       <c r="J11" t="n">
-        <v>505.7928844944279</v>
+        <v>508.1986817120809</v>
       </c>
       <c r="K11" t="n">
-        <v>505.7928844944279</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="L11" t="n">
-        <v>1279.191002894826</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="M11" t="n">
-        <v>2152.101191283514</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="N11" t="n">
-        <v>2152.101191283514</v>
+        <v>1916.207909167614</v>
       </c>
       <c r="O11" t="n">
-        <v>2152.101191283514</v>
+        <v>2818.889838124757</v>
       </c>
       <c r="P11" t="n">
-        <v>2980.41106611691</v>
+        <v>3647.199712958153</v>
       </c>
       <c r="Q11" t="n">
-        <v>3526.909852075505</v>
+        <v>3647.199712958153</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075505</v>
+        <v>3647.199712958153</v>
       </c>
       <c r="S11" t="n">
-        <v>3526.909852075505</v>
+        <v>3622.455575503905</v>
       </c>
       <c r="T11" t="n">
-        <v>3526.909852075505</v>
+        <v>3402.388348376944</v>
       </c>
       <c r="U11" t="n">
-        <v>3526.909852075505</v>
+        <v>3402.388348376944</v>
       </c>
       <c r="V11" t="n">
-        <v>3164.292902009331</v>
+        <v>3039.77139831077</v>
       </c>
       <c r="W11" t="n">
-        <v>2876.436515013471</v>
+        <v>2634.915943721804</v>
       </c>
       <c r="X11" t="n">
-        <v>2457.294051592782</v>
+        <v>2215.773480301114</v>
       </c>
       <c r="Y11" t="n">
-        <v>2049.007927892435</v>
+        <v>1807.487356600768</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328029</v>
+        <v>579.1157392504558</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694452</v>
+        <v>472.6592780870981</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159984</v>
+        <v>377.5689892336514</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429521</v>
+        <v>283.4485745606051</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591138</v>
+        <v>200.0647361767667</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252976</v>
+        <v>114.6796464429506</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151009</v>
+        <v>72.94399425916306</v>
       </c>
       <c r="I12" t="n">
-        <v>96.60187020196769</v>
+        <v>99.00766741962066</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681801</v>
+        <v>423.565992385833</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.565992385833</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.565992385833</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.565992385833</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.565992385833</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.565992385833</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1619.010977643632</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1736.183755737972</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1672.728318186355</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1542.549674516957</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1366.213127516925</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1167.095609578924</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944654</v>
+        <v>981.7728553121183</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333453</v>
+        <v>826.9054195509982</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0138431125661</v>
+        <v>700.419640330219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>921.0342341184414</v>
+        <v>923.4400313360937</v>
       </c>
       <c r="C13" t="n">
-        <v>748.4725226016664</v>
+        <v>750.8783198193187</v>
       </c>
       <c r="D13" t="n">
-        <v>582.5945298031891</v>
+        <v>585.0003270208415</v>
       </c>
       <c r="E13" t="n">
-        <v>412.8365260539263</v>
+        <v>415.2423232715792</v>
       </c>
       <c r="F13" t="n">
-        <v>236.1294720156824</v>
+        <v>238.5352692333354</v>
       </c>
       <c r="G13" t="n">
-        <v>70.53819704151009</v>
+        <v>72.94399425916306</v>
       </c>
       <c r="H13" t="n">
-        <v>70.53819704151009</v>
+        <v>72.94399425916306</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151009</v>
+        <v>72.94399425916306</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822061999</v>
+        <v>159.5236794238529</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773356</v>
+        <v>434.2821339949885</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452966</v>
+        <v>852.4920157629496</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1311.975882943863</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109635</v>
+        <v>2173.903935327289</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079977</v>
+        <v>2521.410829297631</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.19780694431</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="S13" t="n">
-        <v>2668.958637901625</v>
+        <v>2671.364435119278</v>
       </c>
       <c r="T13" t="n">
-        <v>2423.079191480081</v>
+        <v>2425.484988697733</v>
       </c>
       <c r="U13" t="n">
-        <v>2144.646190733186</v>
+        <v>2147.051987950838</v>
       </c>
       <c r="V13" t="n">
-        <v>1857.690682603617</v>
+        <v>1860.096479821269</v>
       </c>
       <c r="W13" t="n">
-        <v>1585.664278189908</v>
+        <v>1588.07007540756</v>
       </c>
       <c r="X13" t="n">
-        <v>1340.27252352332</v>
+        <v>1342.678320740973</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.852852837429</v>
+        <v>1115.258650055081</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5285,43 +5285,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5334,16 +5334,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.9960463903951</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>798.4343348736201</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>462.7983383258799</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W16" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5522,22 +5522,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4584.153287715592</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4584.153287715592</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903952</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.79833832588</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5753,31 +5753,31 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1015.441008084184</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C22" t="n">
-        <v>842.8792965674085</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674085</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5944,16 +5944,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1952.097456569358</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1680.07105215565</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1434.679297489062</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1207.259626803171</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,28 +5975,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>617.7751448769887</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>451.8971520785114</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>282.1391483292487</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883919</v>
+        <v>790.3368563937635</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716168</v>
+        <v>617.7751448769884</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731395</v>
+        <v>617.7751448769884</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238767</v>
+        <v>448.0171411277257</v>
       </c>
       <c r="F28" t="n">
-        <v>126.849915585633</v>
+        <v>271.310087089482</v>
       </c>
       <c r="G28" t="n">
-        <v>126.849915585633</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6449,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N32" t="n">
-        <v>3304.552472135279</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O32" t="n">
-        <v>4284.732138705585</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
+        <v>4566.543227580387</v>
+      </c>
+      <c r="Q32" t="n">
         <v>5113.042013538981</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
         <v>614.3171730324584</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,10 +6941,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886292</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>760.880759503028</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.64750088558</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.167761876911</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7205,19 +7205,19 @@
         <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7315,13 +7315,13 @@
         <v>756.1866229080665</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716799</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463122</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385016</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
@@ -7342,22 +7342,22 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156104</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290616</v>
       </c>
       <c r="T40" t="n">
         <v>2465.473625281949</v>
@@ -7369,13 +7369,13 @@
         <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
@@ -7403,40 +7403,40 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>444.7825334645009</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1279.132825422679</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.192791675539</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.192791675539</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7454,7 +7454,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936668</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882657</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7591,7 +7591,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,10 +7609,10 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
         <v>1584.13803439033</v>
@@ -7640,37 +7640,37 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>444.7825334645019</v>
+        <v>444.7825334645009</v>
       </c>
       <c r="K44" t="n">
-        <v>1279.13282542268</v>
+        <v>1279.132825422679</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675539</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675539</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387605</v>
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7783,25 +7783,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716792</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7810,7 +7810,7 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7828,7 +7828,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,7 +7846,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>121.1234907850398</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060611</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.061749506061</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060612</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.257489509821426</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>298.4303698644312</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>120.5810333588811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>426.5811011551051</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>529.2391970873859</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.2391970873859</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>529.2391970873859</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>149.0417929543182</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.2391970873859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>409.7968071190627</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8690,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>781.2102206064632</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7274630188763</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>579.4534701993487</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>911.7999282395381</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9170,19 +9170,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>363.3683445154875</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9401,22 +9401,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>866.2895820207518</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,7 +10367,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>350.7230603926092</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926101</v>
+        <v>350.7230603926092</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313975</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>58.31865899829634</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>115.8290769171754</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.459718676090862e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>69.71657238081393</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627252</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>113.8761173587626</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>201.6494670918339</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>135.0797604404445</v>
       </c>
       <c r="H28" t="n">
-        <v>114.1599680048244</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627252</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627256</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>822617.4196216663</v>
+        <v>829717.1770403179</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>822617.4196216663</v>
+        <v>830100.3208562668</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>825846.1127669957</v>
+        <v>830100.3208562668</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637488.9038046263</v>
+        <v>652134.3840605542</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>830602.9957451586</v>
+        <v>830602.9957451585</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>830602.9957451585</v>
+        <v>830602.9957451586</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>844537.5993747429</v>
+        <v>830602.9957451586</v>
       </c>
     </row>
     <row r="14">
@@ -26317,16 +26317,16 @@
         <v>134036.8299726021</v>
       </c>
       <c r="D2" t="n">
-        <v>134036.8299726021</v>
+        <v>134036.829972602</v>
       </c>
       <c r="E2" t="n">
-        <v>101090.974115606</v>
+        <v>103413.4080538701</v>
       </c>
       <c r="F2" t="n">
         <v>131714.396034338</v>
       </c>
       <c r="G2" t="n">
-        <v>131714.3960343381</v>
+        <v>131714.396034338</v>
       </c>
       <c r="H2" t="n">
         <v>131714.396034338</v>
@@ -26338,13 +26338,13 @@
         <v>131714.396034338</v>
       </c>
       <c r="K2" t="n">
-        <v>131714.396034338</v>
+        <v>131714.3960343381</v>
       </c>
       <c r="L2" t="n">
         <v>131714.396034338</v>
       </c>
       <c r="M2" t="n">
-        <v>134036.8299726021</v>
+        <v>131714.396034338</v>
       </c>
       <c r="N2" t="n">
         <v>134036.8299726021</v>
@@ -26353,7 +26353,7 @@
         <v>134036.8299726021</v>
       </c>
       <c r="P2" t="n">
-        <v>134036.8299726021</v>
+        <v>134036.8299726022</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797197</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928948752</v>
       </c>
       <c r="D3" t="n">
-        <v>32598.54956978468</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>105245.2414652925</v>
+        <v>72938.04361534413</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.025923871</v>
+        <v>105000.4827540555</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877639</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.12134737499</v>
       </c>
       <c r="L3" t="n">
-        <v>26560.21475442286</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>100830.054094189</v>
+        <v>60876.72976950149</v>
       </c>
       <c r="N3" t="n">
-        <v>82750.13805526371</v>
+        <v>88373.14763716036</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>141850.7275657255</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>166775.6748273586</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>31561.92029321031</v>
+        <v>32287.01445208064</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26445,19 +26445,19 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>46465.30974654598</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
         <v>55396.201086403</v>
       </c>
       <c r="O4" t="n">
-        <v>55396.20108640302</v>
+        <v>55396.20108640303</v>
       </c>
       <c r="P4" t="n">
-        <v>55396.20108640303</v>
+        <v>55396.201086403</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996851</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>65805.34318291306</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154767</v>
+        <v>55437.43563696392</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-255143.7918801435</v>
+        <v>-300795.5106428116</v>
       </c>
       <c r="C6" t="n">
-        <v>-112952.4912204336</v>
+        <v>-83582.78875700888</v>
       </c>
       <c r="D6" t="n">
-        <v>-131142.7376074542</v>
+        <v>-79559.44182806018</v>
       </c>
       <c r="E6" t="n">
-        <v>-89325.21739444451</v>
+        <v>-57555.31986970594</v>
       </c>
       <c r="F6" t="n">
-        <v>-100743.8204252382</v>
+        <v>-92150.50159480532</v>
       </c>
       <c r="G6" t="n">
-        <v>12873.20549863283</v>
+        <v>12849.98115925016</v>
       </c>
       <c r="H6" t="n">
-        <v>12873.2054986328</v>
+        <v>12849.98115925019</v>
       </c>
       <c r="I6" t="n">
-        <v>12873.20549863281</v>
+        <v>12849.98115925017</v>
       </c>
       <c r="J6" t="n">
-        <v>-98141.25984635738</v>
+        <v>-158542.9952285137</v>
       </c>
       <c r="K6" t="n">
-        <v>12873.20549863279</v>
+        <v>9644.859811875207</v>
       </c>
       <c r="L6" t="n">
-        <v>-13687.00925579006</v>
+        <v>12849.98115925017</v>
       </c>
       <c r="M6" t="n">
-        <v>-92341.69240639347</v>
+        <v>-48026.74861025131</v>
       </c>
       <c r="N6" t="n">
-        <v>-79625.12389515428</v>
+        <v>-85248.13347705094</v>
       </c>
       <c r="O6" t="n">
-        <v>3125.014160109407</v>
+        <v>3125.014160109378</v>
       </c>
       <c r="P6" t="n">
-        <v>3125.014160109393</v>
+        <v>3125.014160109466</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>16.23571033874736</v>
       </c>
-      <c r="N2" t="n">
-        <v>16.23571033874739</v>
-      </c>
       <c r="O2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060611</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>529.2391970873859</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188762</v>
+        <v>911.7999282395382</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>16.23571033874736</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060611</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179583</v>
       </c>
       <c r="D4" t="n">
-        <v>104.9433395672816</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>352.4882659314902</v>
+        <v>244.2847216316812</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658692</v>
+        <v>366.4605751452067</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060611</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179583</v>
       </c>
       <c r="L4" t="n">
-        <v>104.9433395672816</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314902</v>
+        <v>244.2847216316812</v>
       </c>
       <c r="N4" t="n">
-        <v>337.8563329288469</v>
+        <v>307.7838677081844</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060611</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179583</v>
       </c>
       <c r="L4" t="n">
-        <v>104.9433395672816</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314902</v>
+        <v>244.2847216316812</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658692</v>
+        <v>366.4605751452067</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>172.8674689965374</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>370.3579796189765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>133.5584354736795</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>170.7774043256469</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>73.13130200746645</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27670,7 +27670,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>185.8757317238697</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>22.23190701434962</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.5633111792702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>212.8683581419007</v>
       </c>
       <c r="W8" t="n">
-        <v>263.7757773599633</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>206.3102819883694</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>84.63380825304844</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874697</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874765</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>121.1234907850398</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060611</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.061749506061</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060612</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.257489509821426</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>298.4303698644312</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>120.5810333588811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>426.5811011551051</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>529.2391970873859</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.2391970873859</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>529.2391970873859</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>149.0417929543182</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.2391970873859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>409.7968071190627</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>781.2102206064632</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7274630188763</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>579.4534701993487</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>911.7999282395381</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35890,19 +35890,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>363.3683445154875</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,22 +36121,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>866.2895820207518</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,7 +37087,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343482</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900414</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
@@ -37710,16 +37710,16 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900423</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>350.7230603926092</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926101</v>
+        <v>350.7230603926092</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38181,7 +38181,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
